--- a/biology/Médecine/Test_de_concordance_de_script/Test_de_concordance_de_script.xlsx
+++ b/biology/Médecine/Test_de_concordance_de_script/Test_de_concordance_de_script.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test de concordance de script (TCS) est une technique d'évaluation du raisonnement clinique en contexte d'incertitude par une simulation de situations. 
 Cet instrument d'évaluation a été conçu et développé dans le domaine de la santé pour mesurer la capacité à résoudre des problèmes mal définis, toutefois il peut être utilisé dans tous les domaines professionnels. 
@@ -514,7 +526,9 @@
           <t>But</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La capacité à résoudre des problèmes cliniques mal définis caractérise les médecins expérimentés et compétents. En matière d’évaluation, les modalités actuelles exigent un consensus entre les membres du jury sur la bonne réponse, or les médecins expérimentés varient dans le processus de raisonnement pour ce type de problème qui est en conséquence généralement exclu des évaluations. Ceci explique peut-être pourquoi les médecins expérimentés n’obtiennent pas, dans les évaluations écrites de compétence, des scores plus élevés que les médecins en fin de formation.
 </t>
@@ -545,9 +559,11 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les TCS s'appuie sur la théorie hypothético-déductive du raisonnement clinique et sur la théorie des scripts, elle-même issue de la psychologie cognitive.. (Réseaux de connaissances organisées pour la résolution de tâches spécifiques) [1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les TCS s'appuie sur la théorie hypothético-déductive du raisonnement clinique et sur la théorie des scripts, elle-même issue de la psychologie cognitive.. (Réseaux de connaissances organisées pour la résolution de tâches spécifiques) 
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs études menées dans différentes disciplines ont montré que le test permet de discriminer des niveaux d’expérience différents avec des caractéristiques psychométriques intéressantes (validité de construit, validité prédictive, fidélité). Ces résultats sont brièvement présentés et commentés[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs études menées dans différentes disciplines ont montré que le test permet de discriminer des niveaux d’expérience différents avec des caractéristiques psychométriques intéressantes (validité de construit, validité prédictive, fidélité). Ces résultats sont brièvement présentés et commentés.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Questionnaire de diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Représentation de comment se concrétise le questionnaire de test de concordance de script.
 La grille de réponse est :
